--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H2">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J2">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>187.8220521760165</v>
+        <v>315.297123664052</v>
       </c>
       <c r="R2">
-        <v>187.8220521760165</v>
+        <v>2837.674112976468</v>
       </c>
       <c r="S2">
-        <v>3.198356753504586E-05</v>
+        <v>4.518727963094954E-05</v>
       </c>
       <c r="T2">
-        <v>3.198356753504586E-05</v>
+        <v>4.518727963094954E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H3">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J3">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>771.0905148724381</v>
+        <v>1304.479674734272</v>
       </c>
       <c r="R3">
-        <v>771.0905148724381</v>
+        <v>11740.31707260845</v>
       </c>
       <c r="S3">
-        <v>0.0001313063363557749</v>
+        <v>0.0001869534588520836</v>
       </c>
       <c r="T3">
-        <v>0.0001313063363557749</v>
+        <v>0.0001869534588520835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H4">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J4">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>2049.984607884763</v>
+        <v>3442.47448081176</v>
       </c>
       <c r="R4">
-        <v>2049.984607884763</v>
+        <v>30982.27032730584</v>
       </c>
       <c r="S4">
-        <v>0.0003490847873956896</v>
+        <v>0.0004933633874585969</v>
       </c>
       <c r="T4">
-        <v>0.0003490847873956896</v>
+        <v>0.0004933633874585969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H5">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J5">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>2041.234433699655</v>
+        <v>3973.300451269564</v>
       </c>
       <c r="R5">
-        <v>2041.234433699655</v>
+        <v>35759.70406142608</v>
       </c>
       <c r="S5">
-        <v>0.0003475947505030539</v>
+        <v>0.0005694395066559436</v>
       </c>
       <c r="T5">
-        <v>0.0003475947505030539</v>
+        <v>0.0005694395066559435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.40695073532857</v>
+        <v>14.110548</v>
       </c>
       <c r="H6">
-        <v>8.40695073532857</v>
+        <v>42.331644</v>
       </c>
       <c r="I6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="J6">
-        <v>0.0009433129841811294</v>
+        <v>0.001427319132920652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>489.4311790093481</v>
+        <v>923.658490538332</v>
       </c>
       <c r="R6">
-        <v>489.4311790093481</v>
+        <v>8312.926414844987</v>
       </c>
       <c r="S6">
-        <v>8.334354239156522E-05</v>
+        <v>0.0001323755003230783</v>
       </c>
       <c r="T6">
-        <v>8.334354239156522E-05</v>
+        <v>0.0001323755003230783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H7">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J7">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>1029.392209470435</v>
+        <v>1056.787058405116</v>
       </c>
       <c r="R7">
-        <v>1029.392209470435</v>
+        <v>9511.083525646045</v>
       </c>
       <c r="S7">
-        <v>0.0001752916383896898</v>
+        <v>0.0001514550204695226</v>
       </c>
       <c r="T7">
-        <v>0.0001752916383896898</v>
+        <v>0.0001514550204695226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H8">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J8">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>4226.098903777131</v>
+        <v>4372.248063006569</v>
       </c>
       <c r="R8">
-        <v>4226.098903777131</v>
+        <v>39350.23256705912</v>
       </c>
       <c r="S8">
-        <v>0.0007196477630436565</v>
+        <v>0.0006266152813035666</v>
       </c>
       <c r="T8">
-        <v>0.0007196477630436565</v>
+        <v>0.0006266152813035663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H9">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J9">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>11235.30576118549</v>
+        <v>11538.2038311519</v>
       </c>
       <c r="R9">
-        <v>11235.30576118549</v>
+        <v>103843.8344803671</v>
       </c>
       <c r="S9">
-        <v>0.001913221351947574</v>
+        <v>0.001653614967679448</v>
       </c>
       <c r="T9">
-        <v>0.001913221351947574</v>
+        <v>0.001653614967679448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H10">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J10">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>11187.34887309219</v>
+        <v>13317.38281422076</v>
       </c>
       <c r="R10">
-        <v>11187.34887309219</v>
+        <v>119856.4453279868</v>
       </c>
       <c r="S10">
-        <v>0.001905054939370709</v>
+        <v>0.001908600669062195</v>
       </c>
       <c r="T10">
-        <v>0.001905054939370709</v>
+        <v>0.001908600669062194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0757908461083</v>
+        <v>47.29457833333333</v>
       </c>
       <c r="H11">
-        <v>46.0757908461083</v>
+        <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446738</v>
       </c>
       <c r="J11">
-        <v>0.005169994820940185</v>
+        <v>0.004783971291446737</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>2682.414747933878</v>
+        <v>3095.842828642344</v>
       </c>
       <c r="R11">
-        <v>2682.414747933878</v>
+        <v>27862.5854577811</v>
       </c>
       <c r="S11">
-        <v>0.0004567791281885555</v>
+        <v>0.0004436853529320065</v>
       </c>
       <c r="T11">
-        <v>0.0004567791281885555</v>
+        <v>0.0004436853529320064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H12">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J12">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>156784.318642306</v>
+        <v>157038.7920131448</v>
       </c>
       <c r="R12">
-        <v>156784.318642306</v>
+        <v>1413349.128118303</v>
       </c>
       <c r="S12">
-        <v>0.02669825925995638</v>
+        <v>0.02250624974037323</v>
       </c>
       <c r="T12">
-        <v>0.02669825925995638</v>
+        <v>0.02250624974037323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H13">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J13">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>643667.2349449365</v>
+        <v>649717.0349839322</v>
       </c>
       <c r="R13">
-        <v>643667.2349449365</v>
+        <v>5847453.314855389</v>
       </c>
       <c r="S13">
-        <v>0.1096078668103617</v>
+        <v>0.09311517022303137</v>
       </c>
       <c r="T13">
-        <v>0.1096078668103617</v>
+        <v>0.09311517022303134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H14">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J14">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>1711223.12982303</v>
+        <v>1714579.656548869</v>
       </c>
       <c r="R14">
-        <v>1711223.12982303</v>
+        <v>15431216.90893982</v>
       </c>
       <c r="S14">
-        <v>0.2913982671690571</v>
+        <v>0.2457275521249691</v>
       </c>
       <c r="T14">
-        <v>0.2913982671690571</v>
+        <v>0.2457275521249691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H15">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J15">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>1703918.928416861</v>
+        <v>1978966.049298581</v>
       </c>
       <c r="R15">
-        <v>1703918.928416861</v>
+        <v>17810694.44368723</v>
       </c>
       <c r="S15">
-        <v>0.290154459978915</v>
+        <v>0.2836184840845283</v>
       </c>
       <c r="T15">
-        <v>0.290154459978915</v>
+        <v>0.2836184840845282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7017.69588622476</v>
+        <v>7027.984863333334</v>
       </c>
       <c r="H16">
-        <v>7017.69588622476</v>
+        <v>21083.95459</v>
       </c>
       <c r="I16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381794</v>
       </c>
       <c r="J16">
-        <v>0.7874298133675918</v>
+        <v>0.7108991983381793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>408552.3133959221</v>
+        <v>460042.9331584225</v>
       </c>
       <c r="R16">
-        <v>408552.3133959221</v>
+        <v>4140386.398425803</v>
       </c>
       <c r="S16">
-        <v>0.06957096014930166</v>
+        <v>0.06593174216527743</v>
       </c>
       <c r="T16">
-        <v>0.06957096014930166</v>
+        <v>0.06593174216527742</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H17">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J17">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>38533.20911744447</v>
+        <v>59845.45154026336</v>
       </c>
       <c r="R17">
-        <v>38533.20911744447</v>
+        <v>538609.0638623703</v>
       </c>
       <c r="S17">
-        <v>0.006561686883257272</v>
+        <v>0.008576840543181398</v>
       </c>
       <c r="T17">
-        <v>0.006561686883257272</v>
+        <v>0.008576840543181398</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H18">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J18">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>158195.4393204722</v>
+        <v>247598.7546361149</v>
       </c>
       <c r="R18">
-        <v>158195.4393204722</v>
+        <v>2228388.791725034</v>
       </c>
       <c r="S18">
-        <v>0.02693855411877272</v>
+        <v>0.03548498645340672</v>
       </c>
       <c r="T18">
-        <v>0.02693855411877272</v>
+        <v>0.03548498645340671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H19">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J19">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>420570.8790208435</v>
+        <v>653404.1202974096</v>
       </c>
       <c r="R19">
-        <v>420570.8790208435</v>
+        <v>5880637.082676687</v>
       </c>
       <c r="S19">
-        <v>0.07161756011392571</v>
+        <v>0.09364359037842988</v>
       </c>
       <c r="T19">
-        <v>0.07161756011392571</v>
+        <v>0.09364359037842988</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H20">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J20">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>418775.7102013012</v>
+        <v>754158.3533908708</v>
       </c>
       <c r="R20">
-        <v>418775.7102013012</v>
+        <v>6787425.180517838</v>
       </c>
       <c r="S20">
-        <v>0.07131186702564643</v>
+        <v>0.1080833342361858</v>
       </c>
       <c r="T20">
-        <v>0.07131186702564643</v>
+        <v>0.1080833342361858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1724.75376012229</v>
+        <v>2678.274088666667</v>
       </c>
       <c r="H21">
-        <v>1724.75376012229</v>
+        <v>8034.822266</v>
       </c>
       <c r="I21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="J21">
-        <v>0.1935282681747502</v>
+        <v>0.2709144853877791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N21">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P21">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q21">
-        <v>100410.7544927188</v>
+        <v>175316.408830173</v>
       </c>
       <c r="R21">
-        <v>100410.7544927188</v>
+        <v>1577847.679471557</v>
       </c>
       <c r="S21">
-        <v>0.01709860003314811</v>
+        <v>0.02512573377657526</v>
       </c>
       <c r="T21">
-        <v>0.01709860003314811</v>
+        <v>0.02512573377657526</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H22">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J22">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N22">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P22">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q22">
-        <v>2574.202014882789</v>
+        <v>2645.302735120603</v>
       </c>
       <c r="R22">
-        <v>2574.202014882789</v>
+        <v>23807.72461608543</v>
       </c>
       <c r="S22">
-        <v>0.0004383519562159701</v>
+        <v>0.0003791155244656576</v>
       </c>
       <c r="T22">
-        <v>0.0004383519562159701</v>
+        <v>0.0003791155244656576</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H23">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J23">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N23">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P23">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q23">
-        <v>10568.20929196034</v>
+        <v>10944.41843104335</v>
       </c>
       <c r="R23">
-        <v>10568.20929196034</v>
+        <v>98499.76587939015</v>
       </c>
       <c r="S23">
-        <v>0.001799623801880034</v>
+        <v>0.001568515723500902</v>
       </c>
       <c r="T23">
-        <v>0.001799623801880034</v>
+        <v>0.001568515723500902</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H24">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J24">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N24">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P24">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q24">
-        <v>28096.13912188691</v>
+        <v>28881.9227205417</v>
       </c>
       <c r="R24">
-        <v>28096.13912188691</v>
+        <v>259937.3044848753</v>
       </c>
       <c r="S24">
-        <v>0.004784394338513467</v>
+        <v>0.004139256023290487</v>
       </c>
       <c r="T24">
-        <v>0.004784394338513467</v>
+        <v>0.004139256023290487</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H25">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J25">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N25">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P25">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q25">
-        <v>27976.21328912702</v>
+        <v>33335.48504679128</v>
       </c>
       <c r="R25">
-        <v>27976.21328912702</v>
+        <v>300019.3654211215</v>
       </c>
       <c r="S25">
-        <v>0.00476397258331042</v>
+        <v>0.004777524980049278</v>
       </c>
       <c r="T25">
-        <v>0.00476397258331042</v>
+        <v>0.004777524980049278</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>115.221771198742</v>
+        <v>118.3857016666667</v>
       </c>
       <c r="H26">
-        <v>115.221771198742</v>
+        <v>355.157105</v>
       </c>
       <c r="I26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="J26">
-        <v>0.01292861065253675</v>
+        <v>0.01197502584967427</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N26">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P26">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q26">
-        <v>6707.916948812906</v>
+        <v>7749.377168254176</v>
       </c>
       <c r="R26">
-        <v>6707.916948812906</v>
+        <v>69744.39451428759</v>
       </c>
       <c r="S26">
-        <v>0.00114226797261686</v>
+        <v>0.00111061359836795</v>
       </c>
       <c r="T26">
-        <v>0.00114226797261686</v>
+        <v>0.00111061359836795</v>
       </c>
     </row>
   </sheetData>
